--- a/shiyo/リザルト.xlsx
+++ b/shiyo/リザルト.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>必要リソース(使用リソース)</t>
     <rPh sb="0" eb="2">
@@ -287,7 +287,197 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラワーク</t>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマブラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～4位の順位表示画像</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示用の表示ウィンドウ</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1位</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2位</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3位</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4位</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマブラ参考</t>
+    <rPh sb="4" eb="6">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位で変わるキャラクター（立ち位置）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>タチイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラに一番近い位置で全身が見える</t>
+    <rPh sb="4" eb="6">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラに一番遠い位置で全身が見える</t>
+    <rPh sb="4" eb="6">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3位と同じ立ち位置</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>タチイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1位と2位の中間</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倍率目安</t>
+    <rPh sb="0" eb="2">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位で変わるアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喜ぶアニメーション</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状何もなし</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -579,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -590,6 +780,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -668,38 +890,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2401,7 +2595,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2413,11 +2607,578 @@
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:colorTemperature colorTemp="7200"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </a:blipFill>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="716161"/>
+          <a:ext cx="5886450" cy="3311128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="4707136"/>
+          <a:ext cx="5886450" cy="3311128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="スマイル 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="1771650"/>
+          <a:ext cx="1943100" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="スマイル 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="2286000"/>
+          <a:ext cx="1371600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="スマイル 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="2571750"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="スマイル 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="2571750"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933448" y="3945244"/>
+          <a:ext cx="1285878" cy="682012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457573" y="4011919"/>
+          <a:ext cx="1285878" cy="682012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3889988"/>
+          <a:ext cx="1285878" cy="682012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142872</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286622" y="3889988"/>
+          <a:ext cx="1285878" cy="682012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -16144,298 +16905,298 @@
   <sheetData>
     <row r="1" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="30"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="44"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="10"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="26"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="13"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
       <c r="AI3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="25"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="26"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="13"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
       <c r="AJ4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="26"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="13"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
       <c r="AK5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="13"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="27"/>
       <c r="AK6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="26"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="13"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="27"/>
       <c r="AK7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="26"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="13"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="27"/>
       <c r="AK8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="16"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="30"/>
     </row>
     <row r="10" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -16512,286 +17273,286 @@
       </c>
     </row>
     <row r="12" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="24"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="19"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="33"/>
       <c r="AK12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="25"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="26"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="13"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="27"/>
       <c r="AK13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="25"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="26"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="13"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="27"/>
     </row>
     <row r="15" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="25"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="26"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="13"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="27"/>
     </row>
     <row r="16" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="26"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="13"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="27"/>
     </row>
     <row r="17" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="25"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="26"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="13"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="27"/>
     </row>
     <row r="18" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="26"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="40"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="13"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="27"/>
     </row>
     <row r="19" spans="2:44" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="28"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="22"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="36"/>
     </row>
     <row r="21" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -17608,279 +18369,279 @@
   <sheetData>
     <row r="1" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16"/>
     </row>
     <row r="3" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="10"/>
     </row>
     <row r="4" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="10"/>
     </row>
     <row r="7" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="36"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="36"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="10"/>
     </row>
     <row r="9" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="36"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -17911,10 +18672,10 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="46"/>
+      <c r="AG10" s="20"/>
     </row>
     <row r="11" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -17945,279 +18706,279 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="46"/>
+      <c r="AG11" s="20"/>
     </row>
     <row r="12" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="10"/>
     </row>
     <row r="13" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="36"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
     </row>
     <row r="14" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
     </row>
     <row r="15" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
     </row>
     <row r="16" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="36"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="36"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="36"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="39"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="13"/>
     </row>
     <row r="21" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -19016,279 +19777,279 @@
   <sheetData>
     <row r="1" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16"/>
     </row>
     <row r="3" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="10"/>
     </row>
     <row r="4" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="10"/>
     </row>
     <row r="7" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="36"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="36"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="10"/>
     </row>
     <row r="9" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="36"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -19319,10 +20080,10 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="46"/>
+      <c r="AG10" s="20"/>
     </row>
     <row r="11" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -19353,279 +20114,279 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="46"/>
+      <c r="AG11" s="20"/>
     </row>
     <row r="12" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="10"/>
     </row>
     <row r="13" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="36"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
     </row>
     <row r="14" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
     </row>
     <row r="15" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
     </row>
     <row r="16" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="36"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="36"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="36"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="39"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="13"/>
     </row>
     <row r="21" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -20414,286 +21175,295 @@
   <dimension ref="B1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="32" max="32" width="3.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="43"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
+    <row r="1" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16"/>
+      <c r="AJ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+    <row r="3" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+    <row r="4" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+    <row r="5" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="10"/>
     </row>
-    <row r="6" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+    <row r="6" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+    <row r="7" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="36"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+    <row r="8" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="36"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+    <row r="9" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="36"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="10"/>
     </row>
-    <row r="10" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
+    <row r="10" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -20724,10 +21494,10 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="46"/>
+      <c r="AG10" s="20"/>
     </row>
-    <row r="11" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45"/>
+    <row r="11" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -20758,279 +21528,285 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="46"/>
+      <c r="AG11" s="20"/>
     </row>
-    <row r="12" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+    <row r="12" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="10"/>
     </row>
-    <row r="13" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+    <row r="13" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="36"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+    <row r="14" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
     </row>
-    <row r="15" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+    <row r="15" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+    <row r="16" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="36"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
+      <c r="AJ16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="36"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="36"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="39"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="13"/>
     </row>
     <row r="21" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -21051,14 +21827,13 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="U21" s="6" t="s">
+      <c r="R21" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
@@ -21081,7 +21856,9 @@
     </row>
     <row r="22" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -21097,20 +21874,22 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
+      <c r="V22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
+      <c r="AB22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
+      <c r="AF22" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
@@ -21126,7 +21905,9 @@
     </row>
     <row r="23" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -21142,19 +21923,24 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
+      <c r="V23" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
+      <c r="AF23" s="49">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="49"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
@@ -21185,19 +21971,24 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
+      <c r="V24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
+      <c r="AF24" s="49">
+        <v>1.75</v>
+      </c>
+      <c r="AG24" s="49"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -21228,19 +22019,24 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
+      <c r="V25" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
+      <c r="AF25" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="AG25" s="49"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
@@ -21271,19 +22067,24 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
+      <c r="V26" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
+      <c r="AF26" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="AG26" s="49"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -21342,6 +22143,9 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
+      <c r="S28" t="s">
+        <v>44</v>
+      </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -21385,8 +22189,13 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
+      <c r="T29" t="s">
+        <v>33</v>
+      </c>
       <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
+      <c r="V29" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -21428,8 +22237,13 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
       <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
+      <c r="V30" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -21471,8 +22285,13 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
+      <c r="T31" t="s">
+        <v>35</v>
+      </c>
       <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="V31" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -21514,8 +22333,13 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="V32" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
@@ -21808,6 +22632,12 @@
       <c r="AR41" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21835,548 +22665,548 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
     </row>
     <row r="3" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
     </row>
     <row r="4" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
     </row>
     <row r="5" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
     </row>
     <row r="6" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AX6" s="34"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AX7" s="34"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
     </row>
     <row r="11" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
     </row>
     <row r="12" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
     </row>
     <row r="13" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/shiyo/リザルト.xlsx
+++ b/shiyo/リザルト.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>必要リソース(使用リソース)</t>
     <rPh sb="0" eb="2">
@@ -480,6 +480,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>エアライドの表示の仕方のみでおｋ</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -812,6 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -887,11 +898,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3035,11 +3045,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>位</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3089,11 +3106,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>位</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3143,11 +3167,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>位</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3197,11 +3228,246 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 他ページ結合子 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="885825"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１Ｐ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 他ページ結合子 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="790575"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２Ｐ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 他ページ結合子 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="809625"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３Ｐ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 他ページ結合子 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="800100"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４Ｐ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16905,298 +17171,298 @@
   <sheetData>
     <row r="1" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="44"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="39"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="27"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="28"/>
       <c r="AI3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="27"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="28"/>
       <c r="AJ4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="27"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="28"/>
       <c r="AK5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="27"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="28"/>
       <c r="AK6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="27"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="28"/>
       <c r="AK7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="41"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="27"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="28"/>
       <c r="AK8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="45"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="31"/>
     </row>
     <row r="10" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -17273,286 +17539,286 @@
       </c>
     </row>
     <row r="12" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="34"/>
       <c r="AK12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="41"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="27"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="28"/>
       <c r="AK13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="41"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="27"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="28"/>
     </row>
     <row r="15" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="41"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="27"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="28"/>
     </row>
     <row r="16" spans="2:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="41"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="27"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="28"/>
     </row>
     <row r="17" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="39"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="27"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="28"/>
     </row>
     <row r="18" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="39"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="41"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="27"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="28"/>
     </row>
     <row r="19" spans="2:44" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="41"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="36"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="37"/>
     </row>
     <row r="21" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -21175,7 +21441,7 @@
   <dimension ref="B1:AR41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21937,10 +22203,10 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="49">
+      <c r="AF23" s="48">
         <v>1</v>
       </c>
-      <c r="AG23" s="49"/>
+      <c r="AG23" s="48"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
@@ -21985,10 +22251,10 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="49">
+      <c r="AF24" s="48">
         <v>1.75</v>
       </c>
-      <c r="AG24" s="49"/>
+      <c r="AG24" s="48"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
@@ -22033,10 +22299,10 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="49">
+      <c r="AF25" s="48">
         <v>2.5</v>
       </c>
-      <c r="AG25" s="49"/>
+      <c r="AG25" s="48"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
@@ -22068,7 +22334,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="48" t="s">
+      <c r="T26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="U26" s="6"/>
@@ -22081,10 +22347,10 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="49">
+      <c r="AF26" s="48">
         <v>2.5</v>
       </c>
-      <c r="AG26" s="49"/>
+      <c r="AG26" s="48"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
@@ -22173,7 +22439,9 @@
     </row>
     <row r="29" spans="2:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -22193,7 +22461,7 @@
         <v>33</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="V29" s="48" t="s">
+      <c r="V29" s="22" t="s">
         <v>45</v>
       </c>
       <c r="W29" s="6"/>
@@ -22241,7 +22509,7 @@
         <v>34</v>
       </c>
       <c r="U30" s="6"/>
-      <c r="V30" s="48" t="s">
+      <c r="V30" s="22" t="s">
         <v>46</v>
       </c>
       <c r="W30" s="6"/>
@@ -22289,7 +22557,7 @@
         <v>35</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="V31" s="48" t="s">
+      <c r="V31" s="22" t="s">
         <v>46</v>
       </c>
       <c r="W31" s="6"/>
@@ -22337,7 +22605,7 @@
         <v>36</v>
       </c>
       <c r="U32" s="6"/>
-      <c r="V32" s="48" t="s">
+      <c r="V32" s="22" t="s">
         <v>46</v>
       </c>
       <c r="W32" s="6"/>
@@ -22665,314 +22933,314 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
     </row>
     <row r="3" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
     </row>
     <row r="4" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
     </row>
     <row r="5" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
     </row>
     <row r="6" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
@@ -22982,48 +23250,48 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
@@ -23033,180 +23301,180 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
     </row>
     <row r="11" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
     </row>
     <row r="12" spans="2:50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
     </row>
     <row r="13" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="14">
